--- a/0_dev/0_page-dev/1_workflows-others/workflow-non-landscape-oriented-header-image.xlsx
+++ b/0_dev/0_page-dev/1_workflows-others/workflow-non-landscape-oriented-header-image.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/undiscipliningvc/0_dev/0_page-dev/1_workflows-others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4935854-F30D-8A44-BD75-909D453E43F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482DF158-6FA9-C641-8556-8AB7B6086122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="24680" windowHeight="14900" xr2:uid="{2ADF25DC-AB5F-E543-B391-4448E8F8EBCF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>width</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>[replace]</t>
+  </si>
+  <si>
+    <t>[ignore]</t>
   </si>
 </sst>
 </file>
@@ -133,13 +136,15 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -459,61 +464,65 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
-        <v>928</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="B2" s="5">
+        <v>442</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
-        <v>884</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="5">
+        <v>373</v>
+      </c>
+      <c r="C3" s="4">
         <f>B3*(1/15)</f>
-        <v>58.93333333333333</v>
-      </c>
-      <c r="D3" s="5">
+        <v>24.866666666666667</v>
+      </c>
+      <c r="D3" s="4">
         <f>C3*2</f>
-        <v>117.86666666666666</v>
-      </c>
-      <c r="E3" s="7">
+        <v>49.733333333333334</v>
+      </c>
+      <c r="E3" s="6">
         <f>D3+B3</f>
-        <v>1001.8666666666667</v>
-      </c>
-      <c r="F3" s="7">
+        <v>422.73333333333335</v>
+      </c>
+      <c r="F3" s="6">
         <f>E3*(16/9)</f>
-        <v>1781.0962962962963</v>
+        <v>751.52592592592589</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
